--- a/Báo-cáo-phân-chia-công-việc.xlsx
+++ b/Báo-cáo-phân-chia-công-việc.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\TH_NMLT_NMT\BT nhóm\Nhóm 01 - 12DTHTH15\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3675"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Họ và Tên</t>
   </si>
@@ -51,18 +56,9 @@
     <t>h -&gt; s</t>
   </si>
   <si>
-    <t>full</t>
-  </si>
-  <si>
     <t>Câu</t>
   </si>
   <si>
-    <t>Báo cáo</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -79,6 +75,12 @@
   </si>
   <si>
     <t>Nhóm 1</t>
+  </si>
+  <si>
+    <t>Mức độ hoàn thiện</t>
+  </si>
+  <si>
+    <t>Full</t>
   </si>
 </sst>
 </file>
@@ -358,9 +360,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,9 +372,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,9 +384,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,6 +400,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +701,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -710,65 +712,65 @@
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>12</v>
+      <c r="E2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>13</v>
+      <c r="E3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -779,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -790,8 +792,8 @@
       <c r="F4" s="2">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
+      <c r="G4" s="21">
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -802,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -813,31 +815,31 @@
       <c r="F5" s="2">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
+      <c r="G5" s="21">
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>12</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
+      <c r="G6" s="22">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
